--- a/com.timeKeeping.actiTime.SeleniumAutomation/src/test/resources/ExcelData10AM.xlsx
+++ b/com.timeKeeping.actiTime.SeleniumAutomation/src/test/resources/ExcelData10AM.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="5955" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11430" windowHeight="3765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:P10"/>
+  <oleSize ref="A1:I10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
